--- a/biology/Botanique/Otto_Wittenberg/Otto_Wittenberg.xlsx
+++ b/biology/Botanique/Otto_Wittenberg/Otto_Wittenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Otto Wittenberg (né le 15 mars 1834 à Caputh et mort le 4 septembre 1918 Leipzig) est architecte paysagiste qui a travaillé comme jardinier municipal et directeur de jardin à Leipzig pendant plus de 40 ans.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Wittenberg est le fils du jardinier Friedrich Wittenberg et de son épouse Marie Dorothee, née Gurth. Après avoir étudié au lycée de Potsdam, il commence un apprentissage avec son père dans la pépinière royale de Prusse à Alt-Geltow, qu'il poursuit ensuite dans la pépinière du parc de Sanssouci. C'est ici que le directeur du jardinage Peter Joseph Lenné le remarque, et après avoir terminé son apprentissage, il est chargé de la gestion d'une partie de la pépinière de l'État.
 De 1854 à 1857, Wittenberg fait son service militaire, mais est, toujours à l'instigation de Lenné, affecté aux travaux de plantation au château de Hohenzollern près d'Hechingen. Le 1er octobre 1857, il commence à travailler comme technicien à la ville de Leipzig, s'occupant initialement des installations du Parc Lennè (Schillerpark) au Promenadenring conçues par Lenné. Le 26 mai 1858, il devient jardinier municipal de Leipzig.
@@ -548,7 +562,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les parcs et espaces verts les plus importants créés par Otto Wittenberg à Leipzig:
 Johannapark, 1858–1863 avec PJ Lenné
